--- a/Estatistico_Temp.xlsx
+++ b/Estatistico_Temp.xlsx
@@ -14,33 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Temp</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>1660.0</t>
-  </si>
-  <si>
-    <t>41520.0</t>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>43125.0</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>0.000462962962962963</t>
-  </si>
-  <si>
-    <t>0.038425925925925926</t>
-  </si>
-  <si>
-    <t>0.9611111111111111</t>
+    <t>0.001736111111111111</t>
+  </si>
+  <si>
+    <t>0.9982638888888888</t>
   </si>
 </sst>
 </file>
@@ -383,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -391,39 +385,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
